--- a/biology/Botanique/Dracocephalum/Dracocephalum.xlsx
+++ b/biology/Botanique/Dracocephalum/Dracocephalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dracocephalum, qui a pour nom commun Dracocéphale[1], est une genre de plante de la famille des Lamiaceae. Les quelque 70 espèces se trouvent principalement en Asie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dracocephalum, qui a pour nom commun Dracocéphale, est une genre de plante de la famille des Lamiaceae. Les quelque 70 espèces se trouvent principalement en Asie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Dracocephalum sont principalement des plantes herbacées vivaces, rarement annuelles. La tige est dressée ou prostrée.
 Les feuilles disposées de manière opposée sont pétiolées à la base de la tige, plus haut elles sont pétiolées ou sessiles. Les limbes des feuilles sont simples à pennés et dentelés à entiers.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dracocephalum est présent principalement dans les zones alpines et semi-arides de l'Asie tempérée ; en outre, certaines espèces sont également originaires d'Europe et une en Amérique du Nord et en Afrique du Nord. Il existe environ 35 espèces en Chine.
 </t>
@@ -576,7 +592,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dracocephalum aitchisonii Rech.f., 1955
@@ -681,9 +699,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasites Thrips hawaiiensis, Thymogethes norvegicus, Thymogethes abiens, Sagittogethes devillei. La feuille a pour parasites Puccinia thymi (sv), Leveillula duriaei, Neoërysiphe galeopsidis, Peronospora rossica, Liriomyza strigata (sv), Phytomyza nepetae (sv), Aphis nepetae (sv), Longitarsus lycopi (sv)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasites Thrips hawaiiensis, Thymogethes norvegicus, Thymogethes abiens, Sagittogethes devillei. La feuille a pour parasites Puccinia thymi (sv), Leveillula duriaei, Neoërysiphe galeopsidis, Peronospora rossica, Liriomyza strigata (sv), Phytomyza nepetae (sv), Aphis nepetae (sv), Longitarsus lycopi (sv).
 </t>
         </is>
       </c>
